--- a/DAP/MSNA_2020_DAP_v2_mh.xlsx
+++ b/DAP/MSNA_2020_DAP_v2_mh.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mh1\REACH\2020_BGD_MSNAs\DAP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B40B9F9-E75C-4C6B-92C1-182998D4FB86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="20730" windowHeight="11760" tabRatio="675"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="New aggregated fields" sheetId="11" r:id="rId1"/>
@@ -15,12 +21,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'New aggregated fields'!$A$1:$L$121</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="735">
   <si>
     <t>Description</t>
   </si>
@@ -2272,11 +2278,14 @@
   <si>
     <t>i.ind_6_18</t>
   </si>
+  <si>
+    <t>child_enrolment_nfp_tota</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2663,28 +2672,28 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="60% - Accent3 2" xfId="7"/>
+    <cellStyle name="60% - Accent3 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
-    <cellStyle name="Neutral 2" xfId="4"/>
+    <cellStyle name="Neutral 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="6"/>
-    <cellStyle name="Normal 4" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2960,40 +2969,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:L212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="32.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="80.28515625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="32.5859375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.29296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="80.29296875" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="80.28515625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="10.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="80.29296875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="10.41015625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="1" customWidth="1"/>
-    <col min="11" max="11" width="71.140625" style="1" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="25.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="71.1171875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="9.1171875" style="1"/>
+    <col min="14" max="14" width="25.5859375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>717</v>
       </c>
@@ -3031,7 +3040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="15" t="s">
         <v>599</v>
       </c>
@@ -3063,7 +3072,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="15" t="s">
         <v>599</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>599</v>
       </c>
@@ -3130,7 +3139,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="15" t="s">
         <v>599</v>
       </c>
@@ -3165,7 +3174,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="15" t="s">
         <v>599</v>
       </c>
@@ -3197,7 +3206,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="31" t="s">
         <v>599</v>
       </c>
@@ -3231,7 +3240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>599</v>
       </c>
@@ -3262,7 +3271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="49" t="s">
         <v>599</v>
       </c>
@@ -3293,7 +3302,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="18" t="s">
         <v>599</v>
       </c>
@@ -3325,7 +3334,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="15" t="s">
         <v>599</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="15" t="s">
         <v>599</v>
       </c>
@@ -3389,7 +3398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="15" t="s">
         <v>599</v>
       </c>
@@ -3421,7 +3430,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>599</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="15" t="s">
         <v>599</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="15" t="s">
         <v>599</v>
       </c>
@@ -3517,7 +3526,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="15" t="s">
         <v>599</v>
       </c>
@@ -3549,7 +3558,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="31" t="s">
         <v>599</v>
       </c>
@@ -3580,7 +3589,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="31" t="s">
         <v>599</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="31" t="s">
         <v>599</v>
       </c>
@@ -3643,7 +3652,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="31" t="s">
         <v>599</v>
       </c>
@@ -3673,7 +3682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="31" t="s">
         <v>599</v>
       </c>
@@ -3703,7 +3712,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="31" t="s">
         <v>599</v>
       </c>
@@ -3733,7 +3742,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="31" t="s">
         <v>599</v>
       </c>
@@ -3763,7 +3772,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="31" t="s">
         <v>599</v>
       </c>
@@ -3793,7 +3802,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="31" t="s">
         <v>599</v>
       </c>
@@ -3823,7 +3832,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="31" t="s">
         <v>599</v>
       </c>
@@ -3853,7 +3862,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A28" s="31" t="s">
         <v>599</v>
       </c>
@@ -3883,7 +3892,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A29" s="31" t="s">
         <v>599</v>
       </c>
@@ -3913,7 +3922,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="31" t="s">
         <v>599</v>
       </c>
@@ -3943,7 +3952,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A31" s="31" t="s">
         <v>599</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A32" s="31" t="s">
         <v>599</v>
       </c>
@@ -4005,7 +4014,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A33" s="31" t="s">
         <v>599</v>
       </c>
@@ -4037,7 +4046,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A34" s="31" t="s">
         <v>599</v>
       </c>
@@ -4069,7 +4078,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="31" t="s">
         <v>599</v>
       </c>
@@ -4099,7 +4108,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A36" s="31" t="s">
         <v>599</v>
       </c>
@@ -4129,7 +4138,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A37" s="31" t="s">
         <v>599</v>
       </c>
@@ -4161,7 +4170,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A38" s="31" t="s">
         <v>599</v>
       </c>
@@ -4193,7 +4202,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A39" s="31" t="s">
         <v>599</v>
       </c>
@@ -4225,7 +4234,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="31" t="s">
         <v>599</v>
       </c>
@@ -4257,7 +4266,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A41" s="31" t="s">
         <v>599</v>
       </c>
@@ -4289,7 +4298,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="31" t="s">
         <v>599</v>
       </c>
@@ -4321,7 +4330,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="45" t="s">
         <v>599</v>
       </c>
@@ -4351,7 +4360,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A44" s="45" t="s">
         <v>599</v>
       </c>
@@ -4381,7 +4390,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A45" s="45" t="s">
         <v>599</v>
       </c>
@@ -4411,7 +4420,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A46" s="45" t="s">
         <v>599</v>
       </c>
@@ -4441,7 +4450,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A47" s="45" t="s">
         <v>599</v>
       </c>
@@ -4471,7 +4480,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A48" s="45" t="s">
         <v>599</v>
       </c>
@@ -4502,7 +4511,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A49" s="45" t="s">
         <v>599</v>
       </c>
@@ -4533,7 +4542,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="45" t="s">
         <v>599</v>
       </c>
@@ -4564,7 +4573,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="45" t="s">
         <v>599</v>
       </c>
@@ -4594,7 +4603,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A52" s="45" t="s">
         <v>599</v>
       </c>
@@ -4624,7 +4633,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A53" s="45" t="s">
         <v>599</v>
       </c>
@@ -4654,7 +4663,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A54" s="45" t="s">
         <v>599</v>
       </c>
@@ -4684,7 +4693,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="45" t="s">
         <v>599</v>
       </c>
@@ -4714,7 +4723,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A56" s="45" t="s">
         <v>599</v>
       </c>
@@ -4745,7 +4754,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A57" s="45" t="s">
         <v>599</v>
       </c>
@@ -4776,7 +4785,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="46" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="45" t="s">
         <v>599</v>
       </c>
@@ -4807,7 +4816,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="49" t="s">
         <v>599</v>
       </c>
@@ -4838,7 +4847,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A60" s="31" t="s">
         <v>599</v>
       </c>
@@ -4869,7 +4878,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A61" s="49" t="s">
         <v>599</v>
       </c>
@@ -4900,7 +4909,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A62" s="31" t="s">
         <v>599</v>
       </c>
@@ -4931,7 +4940,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="31" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="31" t="s">
         <v>599</v>
       </c>
@@ -4962,7 +4971,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A64" s="8" t="s">
         <v>599</v>
       </c>
@@ -4993,7 +5002,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A65" s="8" t="s">
         <v>599</v>
       </c>
@@ -5024,7 +5033,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="8" t="s">
         <v>599</v>
       </c>
@@ -5055,7 +5064,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A67" s="8" t="s">
         <v>599</v>
       </c>
@@ -5069,7 +5078,7 @@
         <v>720</v>
       </c>
       <c r="E67" s="8" t="str">
-        <f t="shared" ref="E67:E122" si="1">A67&amp;B67&amp;C67&amp;D67</f>
+        <f t="shared" ref="E67:E123" si="1">A67&amp;B67&amp;C67&amp;D67</f>
         <v>I.HEALTH.ind_need_treatment_f_0_17.INDV</v>
       </c>
       <c r="F67" s="14"/>
@@ -5089,7 +5098,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A68" s="8" t="s">
         <v>599</v>
       </c>
@@ -5120,7 +5129,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A69" s="8" t="s">
         <v>599</v>
       </c>
@@ -5151,7 +5160,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A70" s="8" t="s">
         <v>599</v>
       </c>
@@ -5182,7 +5191,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A71" s="8" t="s">
         <v>599</v>
       </c>
@@ -5213,7 +5222,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A72" s="8" t="s">
         <v>599</v>
       </c>
@@ -5244,7 +5253,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A73" s="8" t="s">
         <v>599</v>
       </c>
@@ -5275,7 +5284,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="74" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A74" s="8" t="s">
         <v>599</v>
       </c>
@@ -5306,7 +5315,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A75" s="8" t="s">
         <v>599</v>
       </c>
@@ -5337,7 +5346,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A76" s="8" t="s">
         <v>599</v>
       </c>
@@ -5368,7 +5377,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A77" s="8" t="s">
         <v>599</v>
       </c>
@@ -5399,7 +5408,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A78" s="8" t="s">
         <v>599</v>
       </c>
@@ -5430,7 +5439,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A79" s="8" t="s">
         <v>599</v>
       </c>
@@ -5464,7 +5473,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A80" s="8" t="s">
         <v>599</v>
       </c>
@@ -5495,7 +5504,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A81" s="8" t="s">
         <v>599</v>
       </c>
@@ -5526,7 +5535,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A82" s="8" t="s">
         <v>599</v>
       </c>
@@ -5557,7 +5566,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A83" s="8" t="s">
         <v>599</v>
       </c>
@@ -5588,7 +5597,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A84" s="8" t="s">
         <v>599</v>
       </c>
@@ -5619,7 +5628,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A85" s="8" t="s">
         <v>599</v>
       </c>
@@ -5650,7 +5659,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A86" s="8" t="s">
         <v>599</v>
       </c>
@@ -5681,7 +5690,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A87" s="8" t="s">
         <v>599</v>
       </c>
@@ -5712,7 +5721,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A88" s="8" t="s">
         <v>599</v>
       </c>
@@ -5743,7 +5752,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A89" s="8" t="s">
         <v>599</v>
       </c>
@@ -5774,7 +5783,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A90" s="8" t="s">
         <v>599</v>
       </c>
@@ -5805,7 +5814,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A91" s="8" t="s">
         <v>599</v>
       </c>
@@ -5836,7 +5845,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A92" s="8" t="s">
         <v>599</v>
       </c>
@@ -5867,7 +5876,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A93" s="8" t="s">
         <v>599</v>
       </c>
@@ -5898,7 +5907,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A94" s="8" t="s">
         <v>599</v>
       </c>
@@ -5929,7 +5938,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A95" s="8" t="s">
         <v>599</v>
       </c>
@@ -5960,7 +5969,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A96" s="8" t="s">
         <v>599</v>
       </c>
@@ -5991,7 +6000,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A97" s="8" t="s">
         <v>599</v>
       </c>
@@ -6022,7 +6031,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A98" s="8" t="s">
         <v>599</v>
       </c>
@@ -6053,7 +6062,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="99" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A99" s="8" t="s">
         <v>599</v>
       </c>
@@ -6084,7 +6093,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="100" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A100" s="8" t="s">
         <v>599</v>
       </c>
@@ -6115,7 +6124,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A101" s="8" t="s">
         <v>599</v>
       </c>
@@ -6146,7 +6155,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="102" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A102" s="8" t="s">
         <v>599</v>
       </c>
@@ -6177,7 +6186,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A103" s="8" t="s">
         <v>599</v>
       </c>
@@ -6208,7 +6217,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A104" s="8" t="s">
         <v>599</v>
       </c>
@@ -6239,7 +6248,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A105" s="8" t="s">
         <v>599</v>
       </c>
@@ -6270,7 +6279,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A106" s="8" t="s">
         <v>599</v>
       </c>
@@ -6301,7 +6310,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A107" s="8" t="s">
         <v>599</v>
       </c>
@@ -6332,7 +6341,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A108" s="8" t="s">
         <v>599</v>
       </c>
@@ -6363,7 +6372,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A109" s="8" t="s">
         <v>599</v>
       </c>
@@ -6394,7 +6403,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A110" s="8" t="s">
         <v>599</v>
       </c>
@@ -6425,7 +6434,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A111" s="8" t="s">
         <v>599</v>
       </c>
@@ -6456,7 +6465,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A112" s="8" t="s">
         <v>599</v>
       </c>
@@ -6487,7 +6496,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A113" s="8" t="s">
         <v>599</v>
       </c>
@@ -6518,7 +6527,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A114" s="8" t="s">
         <v>599</v>
       </c>
@@ -6549,7 +6558,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A115" s="8" t="s">
         <v>599</v>
       </c>
@@ -6580,7 +6589,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A116" s="8" t="s">
         <v>599</v>
       </c>
@@ -6611,7 +6620,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A117" s="8" t="s">
         <v>599</v>
       </c>
@@ -6642,7 +6651,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A118" s="8" t="s">
         <v>599</v>
       </c>
@@ -6673,7 +6682,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A119" s="8" t="s">
         <v>599</v>
       </c>
@@ -6704,7 +6713,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A120" s="8" t="s">
         <v>599</v>
       </c>
@@ -6735,7 +6744,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A121" s="8" t="s">
         <v>599</v>
       </c>
@@ -6766,11 +6775,11 @@
         <v>595</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A122" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="B122" s="96" t="s">
+      <c r="B122" s="94" t="s">
         <v>732</v>
       </c>
       <c r="C122" s="15" t="s">
@@ -6796,274 +6805,290 @@
         <v>731</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="B123" s="94" t="s">
+        <v>732</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="E123" s="15" t="str">
+        <f>A123&amp;B123&amp;C123&amp;D123</f>
+        <v>I.NUTRITION.child_enrolment_nfp_tota.INDVHH</v>
+      </c>
       <c r="F123" s="14"/>
     </row>
-    <row r="124" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F124" s="14"/>
     </row>
-    <row r="125" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F125" s="14"/>
     </row>
-    <row r="126" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F126" s="14"/>
     </row>
-    <row r="127" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F127" s="14"/>
     </row>
-    <row r="128" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F128" s="14"/>
     </row>
-    <row r="129" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F129" s="14"/>
     </row>
-    <row r="130" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F130" s="14"/>
     </row>
-    <row r="131" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F131" s="14"/>
     </row>
-    <row r="132" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F132" s="14"/>
     </row>
-    <row r="133" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F133" s="14"/>
     </row>
-    <row r="134" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F134" s="14"/>
     </row>
-    <row r="135" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F135" s="14"/>
     </row>
-    <row r="136" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F136" s="14"/>
     </row>
-    <row r="137" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F137" s="14"/>
     </row>
-    <row r="138" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F138" s="14"/>
     </row>
-    <row r="139" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F140" s="14"/>
     </row>
-    <row r="141" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F141" s="14"/>
     </row>
-    <row r="142" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F142" s="14"/>
     </row>
-    <row r="143" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F143" s="14"/>
     </row>
-    <row r="144" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F144" s="14"/>
     </row>
-    <row r="145" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F145" s="14"/>
     </row>
-    <row r="146" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F146" s="14"/>
     </row>
-    <row r="147" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F147" s="14"/>
     </row>
-    <row r="148" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F148" s="14"/>
     </row>
-    <row r="149" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F149" s="14"/>
     </row>
-    <row r="150" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F150" s="14"/>
     </row>
-    <row r="151" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F151" s="14"/>
     </row>
-    <row r="152" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F152" s="14"/>
     </row>
-    <row r="153" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F153" s="14"/>
     </row>
-    <row r="154" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F154" s="14"/>
     </row>
-    <row r="155" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F155" s="14"/>
     </row>
-    <row r="156" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F156" s="14"/>
     </row>
-    <row r="157" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F157" s="14"/>
     </row>
-    <row r="158" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F158" s="14"/>
     </row>
-    <row r="159" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F160" s="14"/>
     </row>
-    <row r="161" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F161" s="14"/>
     </row>
-    <row r="162" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F162" s="14"/>
     </row>
-    <row r="163" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F163" s="14"/>
     </row>
-    <row r="164" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F164" s="14"/>
     </row>
-    <row r="165" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F165" s="14"/>
     </row>
-    <row r="166" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F166" s="14"/>
     </row>
-    <row r="167" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F167" s="14"/>
     </row>
-    <row r="168" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F168" s="14"/>
     </row>
-    <row r="169" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F169" s="14"/>
     </row>
-    <row r="170" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F170" s="14"/>
     </row>
-    <row r="171" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F171" s="14"/>
     </row>
-    <row r="172" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F172" s="14"/>
     </row>
-    <row r="173" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F173" s="14"/>
     </row>
-    <row r="174" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F174" s="14"/>
     </row>
-    <row r="175" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F175" s="14"/>
     </row>
-    <row r="176" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F176" s="14"/>
     </row>
-    <row r="177" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F177" s="14"/>
     </row>
-    <row r="178" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F178" s="14"/>
     </row>
-    <row r="179" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F179" s="14"/>
     </row>
-    <row r="180" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F180" s="14"/>
     </row>
-    <row r="181" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F181" s="14"/>
     </row>
-    <row r="182" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F182" s="14"/>
     </row>
-    <row r="183" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F183" s="14"/>
     </row>
-    <row r="184" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F184" s="14"/>
     </row>
-    <row r="185" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F185" s="14"/>
     </row>
-    <row r="186" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F186" s="14"/>
     </row>
-    <row r="187" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F187" s="14"/>
     </row>
-    <row r="188" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F188" s="14"/>
     </row>
-    <row r="189" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F189" s="14"/>
     </row>
-    <row r="190" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F190" s="14"/>
     </row>
-    <row r="191" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F191" s="14"/>
     </row>
-    <row r="192" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F192" s="14"/>
     </row>
-    <row r="193" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F193" s="14"/>
     </row>
-    <row r="194" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F194" s="14"/>
     </row>
-    <row r="195" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F195" s="14"/>
     </row>
-    <row r="196" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F196" s="14"/>
     </row>
-    <row r="197" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F197" s="14"/>
     </row>
-    <row r="198" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F198" s="14"/>
     </row>
-    <row r="199" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F199" s="14"/>
     </row>
-    <row r="200" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F200" s="14"/>
     </row>
-    <row r="201" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F201" s="14"/>
     </row>
-    <row r="202" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F202" s="14"/>
     </row>
-    <row r="203" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F203" s="14"/>
     </row>
-    <row r="204" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F204" s="14"/>
     </row>
-    <row r="205" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F205" s="14"/>
     </row>
-    <row r="206" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F206" s="14"/>
     </row>
-    <row r="207" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F207" s="14"/>
     </row>
-    <row r="208" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F208" s="14"/>
     </row>
-    <row r="209" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F209" s="14"/>
     </row>
-    <row r="210" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F210" s="14"/>
     </row>
-    <row r="211" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F211" s="14"/>
     </row>
-    <row r="212" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="6:6" s="8" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F212" s="14"/>
     </row>
   </sheetData>
@@ -7074,59 +7099,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:XFD273"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <pane ySplit="3" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5859375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.87890625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="33.1171875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.29296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.5859375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.5859375" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5859375" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1171875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="96" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
     </row>
-    <row r="2" spans="1:10" ht="26.1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="26" x14ac:dyDescent="0.45">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -7144,7 +7169,7 @@
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>15</v>
       </c>
@@ -7176,7 +7201,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" s="37" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A4" s="38" t="s">
         <v>59</v>
       </c>
@@ -7190,7 +7215,7 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
         <v>60</v>
@@ -7210,7 +7235,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A6" s="21"/>
       <c r="B6" s="22" t="s">
         <v>62</v>
@@ -7228,7 +7253,7 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
       <c r="B7" s="22" t="s">
         <v>1</v>
@@ -7246,7 +7271,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" s="37" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A8" s="38" t="s">
         <v>64</v>
       </c>
@@ -7260,7 +7285,7 @@
       <c r="I8" s="36"/>
       <c r="J8" s="36"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A9" s="21"/>
       <c r="B9" s="23" t="s">
         <v>30</v>
@@ -7278,7 +7303,7 @@
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A10" s="21"/>
       <c r="B10" s="22" t="s">
         <v>33</v>
@@ -7298,7 +7323,7 @@
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
         <v>67</v>
@@ -7318,7 +7343,7 @@
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="s">
         <v>43</v>
@@ -7338,7 +7363,7 @@
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="s">
         <v>36</v>
@@ -7358,7 +7383,7 @@
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
         <v>40</v>
@@ -7378,7 +7403,7 @@
       <c r="I14" s="14"/>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A15" s="29"/>
       <c r="B15" s="30" t="s">
         <v>68</v>
@@ -7398,7 +7423,7 @@
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
     </row>
-    <row r="16" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
         <v>69</v>
@@ -7418,7 +7443,7 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A17" s="21"/>
       <c r="B17" s="15" t="s">
         <v>50</v>
@@ -7438,7 +7463,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A18" s="29"/>
       <c r="B18" s="31" t="s">
         <v>70</v>
@@ -7458,7 +7483,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
     </row>
-    <row r="19" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A19" s="29"/>
       <c r="B19" s="31" t="s">
         <v>486</v>
@@ -7478,7 +7503,7 @@
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
     </row>
-    <row r="20" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A20" s="21"/>
       <c r="B20" s="15" t="s">
         <v>57</v>
@@ -7498,7 +7523,7 @@
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A21" s="21"/>
       <c r="B21" s="15" t="s">
         <v>75</v>
@@ -7518,7 +7543,7 @@
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A22" s="21"/>
       <c r="B22" s="15" t="s">
         <v>55</v>
@@ -7538,7 +7563,7 @@
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A23" s="21"/>
       <c r="B23" s="15" t="s">
         <v>481</v>
@@ -7558,7 +7583,7 @@
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A24" s="21"/>
       <c r="B24" s="15" t="s">
         <v>485</v>
@@ -7578,7 +7603,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A25" s="21"/>
       <c r="B25" s="15" t="s">
         <v>482</v>
@@ -7598,7 +7623,7 @@
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
     </row>
-    <row r="26" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A26" s="21"/>
       <c r="B26" s="15" t="s">
         <v>73</v>
@@ -7610,7 +7635,7 @@
       <c r="E26" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="97" t="s">
+      <c r="F26" s="95" t="s">
         <v>63</v>
       </c>
       <c r="G26" s="15"/>
@@ -7618,7 +7643,7 @@
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
     </row>
-    <row r="27" spans="1:10" s="37" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:10" s="37" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A27" s="38" t="s">
         <v>76</v>
       </c>
@@ -7633,7 +7658,7 @@
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
     </row>
-    <row r="28" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A28" s="28"/>
       <c r="B28" s="15" t="s">
         <v>77</v>
@@ -7645,7 +7670,7 @@
       <c r="E28" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F28" s="97" t="s">
+      <c r="F28" s="95" t="s">
         <v>65</v>
       </c>
       <c r="G28" s="28"/>
@@ -7653,7 +7678,7 @@
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
     </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A29" s="21"/>
       <c r="B29" s="22" t="s">
         <v>78</v>
@@ -7665,7 +7690,7 @@
       <c r="E29" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F29" s="97" t="s">
+      <c r="F29" s="95" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="15"/>
@@ -7673,7 +7698,7 @@
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
     </row>
-    <row r="30" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A30" s="21"/>
       <c r="B30" s="22" t="s">
         <v>83</v>
@@ -7693,7 +7718,7 @@
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
     </row>
-    <row r="31" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A31" s="21"/>
       <c r="B31" s="22" t="s">
         <v>597</v>
@@ -7713,7 +7738,7 @@
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A32" s="21"/>
       <c r="B32" s="22" t="s">
         <v>84</v>
@@ -7733,7 +7758,7 @@
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
     </row>
-    <row r="33" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A33" s="21"/>
       <c r="B33" s="22" t="s">
         <v>85</v>
@@ -7745,7 +7770,7 @@
       <c r="E33" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="97" t="s">
+      <c r="F33" s="95" t="s">
         <v>65</v>
       </c>
       <c r="G33" s="15"/>
@@ -7753,7 +7778,7 @@
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
     </row>
-    <row r="34" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A34" s="29"/>
       <c r="B34" s="30" t="s">
         <v>86</v>
@@ -7765,7 +7790,7 @@
       <c r="E34" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="97" t="s">
+      <c r="F34" s="95" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="31"/>
@@ -7773,7 +7798,7 @@
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A35" s="29"/>
       <c r="B35" s="30" t="s">
         <v>87</v>
@@ -7785,7 +7810,7 @@
       <c r="E35" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="97" t="s">
+      <c r="F35" s="95" t="s">
         <v>65</v>
       </c>
       <c r="G35" s="31"/>
@@ -7793,7 +7818,7 @@
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A36" s="29"/>
       <c r="B36" s="30" t="s">
         <v>88</v>
@@ -7805,7 +7830,7 @@
       <c r="E36" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="97" t="s">
+      <c r="F36" s="95" t="s">
         <v>65</v>
       </c>
       <c r="G36" s="31"/>
@@ -7813,7 +7838,7 @@
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="1:10" s="9" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A37" s="21"/>
       <c r="B37" s="22" t="s">
         <v>89</v>
@@ -7825,7 +7850,7 @@
       <c r="E37" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="97" t="s">
+      <c r="F37" s="95" t="s">
         <v>65</v>
       </c>
       <c r="G37" s="15"/>
@@ -7833,7 +7858,7 @@
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
     </row>
-    <row r="38" spans="1:10" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A38" s="38" t="s">
         <v>91</v>
       </c>
@@ -7846,7 +7871,7 @@
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
     </row>
-    <row r="39" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A39" s="29"/>
       <c r="B39" s="30" t="s">
         <v>90</v>
@@ -7866,7 +7891,7 @@
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="1:10" s="39" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A40" s="38" t="s">
         <v>92</v>
       </c>
@@ -7879,7 +7904,7 @@
       <c r="I40" s="41"/>
       <c r="J40" s="41"/>
     </row>
-    <row r="41" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A41" s="29"/>
       <c r="B41" s="30" t="s">
         <v>93</v>
@@ -7899,7 +7924,7 @@
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A42" s="29"/>
       <c r="B42" s="31" t="s">
         <v>94</v>
@@ -7921,7 +7946,7 @@
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A43" s="29"/>
       <c r="B43" s="31" t="s">
         <v>95</v>
@@ -7943,7 +7968,7 @@
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A44" s="29"/>
       <c r="B44" s="31" t="s">
         <v>96</v>
@@ -7965,7 +7990,7 @@
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A45" s="29"/>
       <c r="B45" s="31" t="s">
         <v>97</v>
@@ -7987,7 +8012,7 @@
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A46" s="29"/>
       <c r="B46" s="31" t="s">
         <v>98</v>
@@ -8009,7 +8034,7 @@
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A47" s="29"/>
       <c r="B47" s="31" t="s">
         <v>99</v>
@@ -8031,7 +8056,7 @@
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A48" s="29"/>
       <c r="B48" s="31" t="s">
         <v>100</v>
@@ -8053,7 +8078,7 @@
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
     </row>
-    <row r="49" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A49" s="29"/>
       <c r="B49" s="31" t="s">
         <v>101</v>
@@ -8075,7 +8100,7 @@
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
     </row>
-    <row r="50" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A50" s="29"/>
       <c r="B50" s="30" t="s">
         <v>118</v>
@@ -8095,7 +8120,7 @@
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A51" s="29"/>
       <c r="B51" s="31" t="s">
         <v>119</v>
@@ -8117,7 +8142,7 @@
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
     </row>
-    <row r="52" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A52" s="29"/>
       <c r="B52" s="31" t="s">
         <v>120</v>
@@ -8139,7 +8164,7 @@
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
     </row>
-    <row r="53" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A53" s="29"/>
       <c r="B53" s="31" t="s">
         <v>121</v>
@@ -8161,7 +8186,7 @@
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
     </row>
-    <row r="54" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A54" s="29"/>
       <c r="B54" s="31" t="s">
         <v>122</v>
@@ -8183,7 +8208,7 @@
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
     </row>
-    <row r="55" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A55" s="44"/>
       <c r="B55" s="31" t="s">
         <v>123</v>
@@ -8205,7 +8230,7 @@
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
     </row>
-    <row r="56" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A56" s="29"/>
       <c r="B56" s="31" t="s">
         <v>124</v>
@@ -8227,7 +8252,7 @@
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
     </row>
-    <row r="57" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A57" s="29"/>
       <c r="B57" s="31" t="s">
         <v>125</v>
@@ -8249,7 +8274,7 @@
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
     </row>
-    <row r="58" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A58" s="29"/>
       <c r="B58" s="31" t="s">
         <v>126</v>
@@ -8271,7 +8296,7 @@
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
     </row>
-    <row r="59" spans="1:10" s="33" customFormat="1" ht="14.45" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A59" s="29"/>
       <c r="B59" s="30" t="s">
         <v>127</v>
@@ -8291,7 +8316,7 @@
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
     </row>
-    <row r="60" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A60" s="29"/>
       <c r="B60" s="31" t="s">
         <v>128</v>
@@ -8313,7 +8338,7 @@
       <c r="I60" s="32"/>
       <c r="J60" s="32"/>
     </row>
-    <row r="61" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A61" s="29"/>
       <c r="B61" s="31" t="s">
         <v>129</v>
@@ -8335,7 +8360,7 @@
       <c r="I61" s="32"/>
       <c r="J61" s="32"/>
     </row>
-    <row r="62" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A62" s="29"/>
       <c r="B62" s="31" t="s">
         <v>130</v>
@@ -8357,7 +8382,7 @@
       <c r="I62" s="32"/>
       <c r="J62" s="32"/>
     </row>
-    <row r="63" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A63" s="29"/>
       <c r="B63" s="31" t="s">
         <v>131</v>
@@ -8379,7 +8404,7 @@
       <c r="I63" s="32"/>
       <c r="J63" s="32"/>
     </row>
-    <row r="64" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A64" s="29"/>
       <c r="B64" s="31" t="s">
         <v>132</v>
@@ -8401,7 +8426,7 @@
       <c r="I64" s="32"/>
       <c r="J64" s="32"/>
     </row>
-    <row r="65" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A65" s="29"/>
       <c r="B65" s="31" t="s">
         <v>133</v>
@@ -8423,7 +8448,7 @@
       <c r="I65" s="32"/>
       <c r="J65" s="32"/>
     </row>
-    <row r="66" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A66" s="29"/>
       <c r="B66" s="31" t="s">
         <v>134</v>
@@ -8445,7 +8470,7 @@
       <c r="I66" s="32"/>
       <c r="J66" s="32"/>
     </row>
-    <row r="67" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A67" s="29"/>
       <c r="B67" s="31" t="s">
         <v>135</v>
@@ -8467,7 +8492,7 @@
       <c r="I67" s="32"/>
       <c r="J67" s="32"/>
     </row>
-    <row r="68" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A68" s="48"/>
       <c r="B68" s="45" t="s">
         <v>220</v>
@@ -8485,7 +8510,7 @@
       <c r="I68" s="47"/>
       <c r="J68" s="47"/>
     </row>
-    <row r="69" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A69" s="48"/>
       <c r="B69" s="45" t="s">
         <v>168</v>
@@ -8505,7 +8530,7 @@
       <c r="I69" s="47"/>
       <c r="J69" s="47"/>
     </row>
-    <row r="70" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A70" s="48"/>
       <c r="B70" s="45" t="s">
         <v>169</v>
@@ -8525,7 +8550,7 @@
       <c r="I70" s="47"/>
       <c r="J70" s="47"/>
     </row>
-    <row r="71" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A71" s="48"/>
       <c r="B71" s="45" t="s">
         <v>170</v>
@@ -8545,7 +8570,7 @@
       <c r="I71" s="47"/>
       <c r="J71" s="47"/>
     </row>
-    <row r="72" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A72" s="48"/>
       <c r="B72" s="45" t="s">
         <v>171</v>
@@ -8565,7 +8590,7 @@
       <c r="I72" s="47"/>
       <c r="J72" s="47"/>
     </row>
-    <row r="73" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A73" s="48"/>
       <c r="B73" s="45" t="s">
         <v>172</v>
@@ -8585,7 +8610,7 @@
       <c r="I73" s="47"/>
       <c r="J73" s="47"/>
     </row>
-    <row r="74" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A74" s="48"/>
       <c r="B74" s="45" t="s">
         <v>173</v>
@@ -8605,7 +8630,7 @@
       <c r="I74" s="47"/>
       <c r="J74" s="47"/>
     </row>
-    <row r="75" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A75" s="48"/>
       <c r="B75" s="45" t="s">
         <v>174</v>
@@ -8625,7 +8650,7 @@
       <c r="I75" s="47"/>
       <c r="J75" s="47"/>
     </row>
-    <row r="76" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A76" s="48"/>
       <c r="B76" s="45" t="s">
         <v>175</v>
@@ -8645,7 +8670,7 @@
       <c r="I76" s="47"/>
       <c r="J76" s="47"/>
     </row>
-    <row r="77" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A77" s="48"/>
       <c r="B77" s="45" t="s">
         <v>221</v>
@@ -8665,7 +8690,7 @@
       <c r="I77" s="47"/>
       <c r="J77" s="47"/>
     </row>
-    <row r="78" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A78" s="48"/>
       <c r="B78" s="45" t="s">
         <v>192</v>
@@ -8685,7 +8710,7 @@
       <c r="I78" s="47"/>
       <c r="J78" s="47"/>
     </row>
-    <row r="79" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A79" s="48"/>
       <c r="B79" s="45" t="s">
         <v>194</v>
@@ -8705,7 +8730,7 @@
       <c r="I79" s="47"/>
       <c r="J79" s="47"/>
     </row>
-    <row r="80" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A80" s="48"/>
       <c r="B80" s="45" t="s">
         <v>196</v>
@@ -8725,7 +8750,7 @@
       <c r="I80" s="47"/>
       <c r="J80" s="47"/>
     </row>
-    <row r="81" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A81" s="48"/>
       <c r="B81" s="45" t="s">
         <v>198</v>
@@ -8745,7 +8770,7 @@
       <c r="I81" s="47"/>
       <c r="J81" s="47"/>
     </row>
-    <row r="82" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A82" s="48"/>
       <c r="B82" s="45" t="s">
         <v>200</v>
@@ -8765,7 +8790,7 @@
       <c r="I82" s="47"/>
       <c r="J82" s="47"/>
     </row>
-    <row r="83" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A83" s="48"/>
       <c r="B83" s="45" t="s">
         <v>202</v>
@@ -8785,7 +8810,7 @@
       <c r="I83" s="47"/>
       <c r="J83" s="47"/>
     </row>
-    <row r="84" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A84" s="49"/>
       <c r="B84" s="45" t="s">
         <v>204</v>
@@ -8805,7 +8830,7 @@
       <c r="I84" s="47"/>
       <c r="J84" s="47"/>
     </row>
-    <row r="85" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A85" s="49"/>
       <c r="B85" s="45" t="s">
         <v>206</v>
@@ -8825,7 +8850,7 @@
       <c r="I85" s="47"/>
       <c r="J85" s="47"/>
     </row>
-    <row r="86" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A86" s="49"/>
       <c r="B86" s="49" t="s">
         <v>216</v>
@@ -8845,7 +8870,7 @@
       <c r="I86" s="47"/>
       <c r="J86" s="47"/>
     </row>
-    <row r="87" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A87" s="31"/>
       <c r="B87" s="31" t="s">
         <v>219</v>
@@ -8865,7 +8890,7 @@
       <c r="I87" s="32"/>
       <c r="J87" s="32"/>
     </row>
-    <row r="88" spans="1:10" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A88" s="49"/>
       <c r="B88" s="49" t="s">
         <v>219</v>
@@ -8885,7 +8910,7 @@
       <c r="I88" s="47"/>
       <c r="J88" s="47"/>
     </row>
-    <row r="89" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A89" s="15"/>
       <c r="B89" s="15" t="s">
         <v>226</v>
@@ -8905,7 +8930,7 @@
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
     </row>
-    <row r="90" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A90" s="31"/>
       <c r="B90" s="31" t="s">
         <v>227</v>
@@ -8923,7 +8948,7 @@
       <c r="I90" s="32"/>
       <c r="J90" s="32"/>
     </row>
-    <row r="91" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A91" s="31"/>
       <c r="B91" s="31" t="s">
         <v>229</v>
@@ -8943,7 +8968,7 @@
       <c r="I91" s="32"/>
       <c r="J91" s="32"/>
     </row>
-    <row r="92" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A92" s="31"/>
       <c r="B92" s="31" t="s">
         <v>232</v>
@@ -8963,7 +8988,7 @@
       <c r="I92" s="32"/>
       <c r="J92" s="32"/>
     </row>
-    <row r="93" spans="1:10" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A93" s="31"/>
       <c r="B93" s="31" t="s">
         <v>233</v>
@@ -8983,7 +9008,7 @@
       <c r="I93" s="32"/>
       <c r="J93" s="32"/>
     </row>
-    <row r="94" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A94" s="15"/>
       <c r="B94" s="8" t="s">
         <v>234</v>
@@ -9001,7 +9026,7 @@
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
     </row>
-    <row r="95" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A95" s="51"/>
       <c r="B95" s="8" t="s">
         <v>235</v>
@@ -9021,7 +9046,7 @@
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
     </row>
-    <row r="96" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A96" s="15"/>
       <c r="B96" s="15" t="s">
         <v>242</v>
@@ -9041,7 +9066,7 @@
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
     </row>
-    <row r="97" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A97" s="38" t="s">
         <v>289</v>
       </c>
@@ -9054,7 +9079,7 @@
       <c r="I97" s="41"/>
       <c r="J97" s="41"/>
     </row>
-    <row r="98" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A98" s="15"/>
       <c r="B98" s="15" t="s">
         <v>243</v>
@@ -9074,7 +9099,7 @@
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
     </row>
-    <row r="99" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A99" s="15"/>
       <c r="B99" s="8" t="s">
         <v>244</v>
@@ -9094,7 +9119,7 @@
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
     </row>
-    <row r="100" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A100" s="15"/>
       <c r="B100" s="8" t="s">
         <v>246</v>
@@ -9116,7 +9141,7 @@
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
     </row>
-    <row r="101" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A101" s="15"/>
       <c r="B101" s="8" t="s">
         <v>247</v>
@@ -9140,7 +9165,7 @@
       </c>
       <c r="J101" s="14"/>
     </row>
-    <row r="102" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A102" s="15"/>
       <c r="B102" s="8" t="s">
         <v>248</v>
@@ -9164,7 +9189,7 @@
       </c>
       <c r="J102" s="14"/>
     </row>
-    <row r="103" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A103" s="15"/>
       <c r="B103" s="8" t="s">
         <v>249</v>
@@ -9186,7 +9211,7 @@
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
     </row>
-    <row r="104" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A104" s="15"/>
       <c r="B104" s="8" t="s">
         <v>250</v>
@@ -9208,7 +9233,7 @@
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
     </row>
-    <row r="105" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A105" s="15"/>
       <c r="B105" s="8" t="s">
         <v>251</v>
@@ -9230,7 +9255,7 @@
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
     </row>
-    <row r="106" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A106" s="15"/>
       <c r="B106" s="15" t="s">
         <v>258</v>
@@ -9252,7 +9277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A107" s="15"/>
       <c r="B107" s="15" t="s">
         <v>259</v>
@@ -9272,7 +9297,7 @@
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
     </row>
-    <row r="108" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A108" s="15"/>
       <c r="B108" s="15" t="s">
         <v>260</v>
@@ -9292,7 +9317,7 @@
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
     </row>
-    <row r="109" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" s="11" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A109" s="15"/>
       <c r="B109" s="15" t="s">
         <v>261</v>
@@ -9312,7 +9337,7 @@
       <c r="I109" s="16"/>
       <c r="J109" s="16"/>
     </row>
-    <row r="110" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" s="11" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A110" s="15"/>
       <c r="B110" s="52" t="s">
         <v>262</v>
@@ -9332,7 +9357,7 @@
       <c r="I110" s="16"/>
       <c r="J110" s="16"/>
     </row>
-    <row r="111" spans="1:10" s="11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" s="11" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A111" s="15"/>
       <c r="B111" s="54" t="s">
         <v>267</v>
@@ -9352,7 +9377,7 @@
       <c r="I111" s="16"/>
       <c r="J111" s="16"/>
     </row>
-    <row r="112" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A112" s="15"/>
       <c r="B112" s="53" t="s">
         <v>263</v>
@@ -9372,7 +9397,7 @@
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
     </row>
-    <row r="113" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A113" s="15"/>
       <c r="B113" s="53" t="s">
         <v>264</v>
@@ -9392,7 +9417,7 @@
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
     </row>
-    <row r="114" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A114" s="15"/>
       <c r="B114" s="53" t="s">
         <v>265</v>
@@ -9412,7 +9437,7 @@
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
     </row>
-    <row r="115" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A115" s="15"/>
       <c r="B115" s="52" t="s">
         <v>266</v>
@@ -9432,7 +9457,7 @@
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
     </row>
-    <row r="116" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A116" s="15"/>
       <c r="B116" s="55" t="s">
         <v>277</v>
@@ -9452,7 +9477,7 @@
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
     </row>
-    <row r="117" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A117" s="15"/>
       <c r="B117" s="57" t="s">
         <v>278</v>
@@ -9472,7 +9497,7 @@
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
     </row>
-    <row r="118" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A118" s="15"/>
       <c r="B118" s="57" t="s">
         <v>279</v>
@@ -9492,7 +9517,7 @@
       <c r="I118" s="14"/>
       <c r="J118" s="14"/>
     </row>
-    <row r="119" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A119" s="15"/>
       <c r="B119" s="57" t="s">
         <v>280</v>
@@ -9512,7 +9537,7 @@
       <c r="I119" s="14"/>
       <c r="J119" s="14"/>
     </row>
-    <row r="120" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A120" s="15"/>
       <c r="B120" s="57" t="s">
         <v>281</v>
@@ -9532,7 +9557,7 @@
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
     </row>
-    <row r="121" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A121" s="15"/>
       <c r="B121" s="57" t="s">
         <v>282</v>
@@ -9552,7 +9577,7 @@
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
     </row>
-    <row r="122" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A122" s="15"/>
       <c r="B122" s="57" t="s">
         <v>283</v>
@@ -9572,7 +9597,7 @@
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
     </row>
-    <row r="123" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A123" s="15"/>
       <c r="B123" s="57" t="s">
         <v>284</v>
@@ -9592,7 +9617,7 @@
       <c r="I123" s="14"/>
       <c r="J123" s="14"/>
     </row>
-    <row r="124" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A124" s="15"/>
       <c r="B124" s="57" t="s">
         <v>285</v>
@@ -9612,7 +9637,7 @@
       <c r="I124" s="14"/>
       <c r="J124" s="14"/>
     </row>
-    <row r="125" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A125" s="15"/>
       <c r="B125" s="57" t="s">
         <v>286</v>
@@ -9632,7 +9657,7 @@
       <c r="I125" s="14"/>
       <c r="J125" s="14"/>
     </row>
-    <row r="126" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A126" s="15"/>
       <c r="B126" s="56" t="s">
         <v>287</v>
@@ -9652,7 +9677,7 @@
       <c r="I126" s="14"/>
       <c r="J126" s="14"/>
     </row>
-    <row r="127" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A127" s="15"/>
       <c r="B127" s="56" t="s">
         <v>288</v>
@@ -9676,7 +9701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A128" s="15"/>
       <c r="B128" s="57" t="s">
         <v>4</v>
@@ -9696,7 +9721,7 @@
       <c r="I128" s="14"/>
       <c r="J128" s="14"/>
     </row>
-    <row r="129" spans="1:11" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A129" s="38" t="s">
         <v>290</v>
       </c>
@@ -9709,7 +9734,7 @@
       <c r="I129" s="41"/>
       <c r="J129" s="41"/>
     </row>
-    <row r="130" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A130" s="15"/>
       <c r="B130" s="8" t="s">
         <v>578</v>
@@ -9729,7 +9754,7 @@
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
     </row>
-    <row r="131" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A131" s="15"/>
       <c r="B131" s="8" t="s">
         <v>579</v>
@@ -9750,7 +9775,7 @@
       <c r="J131" s="8"/>
       <c r="K131" s="12"/>
     </row>
-    <row r="132" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A132" s="15"/>
       <c r="B132" s="8" t="s">
         <v>291</v>
@@ -9770,7 +9795,7 @@
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
     </row>
-    <row r="133" spans="1:11" s="50" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" s="50" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A133" s="49"/>
       <c r="B133" s="49" t="s">
         <v>294</v>
@@ -9790,7 +9815,7 @@
       <c r="I133" s="47"/>
       <c r="J133" s="47"/>
     </row>
-    <row r="134" spans="1:11" s="33" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" s="33" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A134" s="31"/>
       <c r="B134" s="31" t="s">
         <v>294</v>
@@ -9810,7 +9835,7 @@
       <c r="I134" s="32"/>
       <c r="J134" s="32"/>
     </row>
-    <row r="135" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A135" s="16"/>
       <c r="B135" s="15" t="s">
         <v>580</v>
@@ -9830,7 +9855,7 @@
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
     </row>
-    <row r="136" spans="1:11" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A136" s="38" t="s">
         <v>322</v>
       </c>
@@ -9843,7 +9868,7 @@
       <c r="I136" s="41"/>
       <c r="J136" s="41"/>
     </row>
-    <row r="137" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A137" s="16"/>
       <c r="B137" s="8" t="s">
         <v>297</v>
@@ -9863,7 +9888,7 @@
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
     </row>
-    <row r="138" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A138" s="16"/>
       <c r="B138" s="8" t="s">
         <v>298</v>
@@ -9883,7 +9908,7 @@
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
     </row>
-    <row r="139" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A139" s="16"/>
       <c r="B139" s="8" t="s">
         <v>299</v>
@@ -9903,7 +9928,7 @@
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
     </row>
-    <row r="140" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A140" s="16"/>
       <c r="B140" s="15" t="s">
         <v>303</v>
@@ -9923,7 +9948,7 @@
       <c r="I140" s="14"/>
       <c r="J140" s="14"/>
     </row>
-    <row r="141" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A141" s="16"/>
       <c r="B141" s="8" t="s">
         <v>304</v>
@@ -9943,7 +9968,7 @@
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
     </row>
-    <row r="142" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A142" s="16"/>
       <c r="B142" s="8" t="s">
         <v>305</v>
@@ -9963,7 +9988,7 @@
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
     </row>
-    <row r="143" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A143" s="16"/>
       <c r="B143" s="8" t="s">
         <v>306</v>
@@ -9983,7 +10008,7 @@
       <c r="I143" s="14"/>
       <c r="J143" s="14"/>
     </row>
-    <row r="144" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A144" s="16"/>
       <c r="B144" s="58" t="s">
         <v>320</v>
@@ -10003,7 +10028,7 @@
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
     </row>
-    <row r="145" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A145" s="8"/>
       <c r="B145" s="8" t="s">
         <v>457</v>
@@ -26397,7 +26422,7 @@
       <c r="XFC145" s="8"/>
       <c r="XFD145" s="8"/>
     </row>
-    <row r="146" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A146" s="8"/>
       <c r="B146" s="8" t="s">
         <v>458</v>
@@ -42791,7 +42816,7 @@
       <c r="XFC146" s="8"/>
       <c r="XFD146" s="8"/>
     </row>
-    <row r="147" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A147" s="8"/>
       <c r="B147" s="8" t="s">
         <v>463</v>
@@ -59185,7 +59210,7 @@
       <c r="XFC147" s="8"/>
       <c r="XFD147" s="8"/>
     </row>
-    <row r="148" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A148" s="16"/>
       <c r="B148" s="59" t="s">
         <v>321</v>
@@ -59205,7 +59230,7 @@
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
     </row>
-    <row r="149" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A149" s="16"/>
       <c r="B149" s="60" t="s">
         <v>323</v>
@@ -59225,7 +59250,7 @@
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
     </row>
-    <row r="150" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A150" s="16"/>
       <c r="B150" s="61" t="s">
         <v>324</v>
@@ -59245,7 +59270,7 @@
       <c r="I150" s="14"/>
       <c r="J150" s="14"/>
     </row>
-    <row r="151" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A151" s="16"/>
       <c r="B151" s="63" t="s">
         <v>325</v>
@@ -59265,7 +59290,7 @@
       <c r="I151" s="14"/>
       <c r="J151" s="14"/>
     </row>
-    <row r="152" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A152" s="16"/>
       <c r="B152" s="63" t="s">
         <v>326</v>
@@ -59285,7 +59310,7 @@
       <c r="I152" s="14"/>
       <c r="J152" s="14"/>
     </row>
-    <row r="153" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A153" s="16"/>
       <c r="B153" s="63" t="s">
         <v>327</v>
@@ -59305,7 +59330,7 @@
       <c r="I153" s="14"/>
       <c r="J153" s="14"/>
     </row>
-    <row r="154" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A154" s="16"/>
       <c r="B154" s="63" t="s">
         <v>328</v>
@@ -59325,7 +59350,7 @@
       <c r="I154" s="14"/>
       <c r="J154" s="14"/>
     </row>
-    <row r="155" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A155" s="16"/>
       <c r="B155" s="63" t="s">
         <v>329</v>
@@ -59345,7 +59370,7 @@
       <c r="I155" s="14"/>
       <c r="J155" s="14"/>
     </row>
-    <row r="156" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A156" s="16"/>
       <c r="B156" s="63" t="s">
         <v>330</v>
@@ -59365,7 +59390,7 @@
       <c r="I156" s="14"/>
       <c r="J156" s="14"/>
     </row>
-    <row r="157" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A157" s="16"/>
       <c r="B157" s="63" t="s">
         <v>331</v>
@@ -59385,7 +59410,7 @@
       <c r="I157" s="14"/>
       <c r="J157" s="14"/>
     </row>
-    <row r="158" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A158" s="16"/>
       <c r="B158" s="63" t="s">
         <v>332</v>
@@ -59405,7 +59430,7 @@
       <c r="I158" s="14"/>
       <c r="J158" s="14"/>
     </row>
-    <row r="159" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A159" s="16"/>
       <c r="B159" s="62" t="s">
         <v>333</v>
@@ -59425,7 +59450,7 @@
       <c r="I159" s="14"/>
       <c r="J159" s="14"/>
     </row>
-    <row r="160" spans="1:16384" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16384" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A160" s="16"/>
       <c r="B160" s="62" t="s">
         <v>334</v>
@@ -59445,7 +59470,7 @@
       <c r="I160" s="14"/>
       <c r="J160" s="14"/>
     </row>
-    <row r="161" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A161" s="16"/>
       <c r="B161" s="63" t="s">
         <v>335</v>
@@ -59465,7 +59490,7 @@
       <c r="I161" s="14"/>
       <c r="J161" s="14"/>
     </row>
-    <row r="162" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A162" s="16"/>
       <c r="B162" s="63" t="s">
         <v>336</v>
@@ -59485,7 +59510,7 @@
       <c r="I162" s="14"/>
       <c r="J162" s="14"/>
     </row>
-    <row r="163" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" s="13" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A163" s="16"/>
       <c r="B163" s="63" t="s">
         <v>337</v>
@@ -59505,7 +59530,7 @@
       <c r="I163" s="18"/>
       <c r="J163" s="18"/>
     </row>
-    <row r="164" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A164" s="13"/>
       <c r="B164" s="63" t="s">
         <v>338</v>
@@ -59525,7 +59550,7 @@
       <c r="I164" s="10"/>
       <c r="J164" s="10"/>
     </row>
-    <row r="165" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A165" s="12"/>
       <c r="B165" s="63" t="s">
         <v>339</v>
@@ -59545,7 +59570,7 @@
       <c r="I165" s="10"/>
       <c r="J165" s="10"/>
     </row>
-    <row r="166" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" s="9" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A166" s="12"/>
       <c r="B166" s="64" t="s">
         <v>340</v>
@@ -59565,7 +59590,7 @@
       <c r="I166" s="10"/>
       <c r="J166" s="10"/>
     </row>
-    <row r="167" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A167" s="12"/>
       <c r="B167" s="65" t="s">
         <v>341</v>
@@ -59583,7 +59608,7 @@
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
     </row>
-    <row r="168" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A168" s="25"/>
       <c r="B168" s="65" t="s">
         <v>342</v>
@@ -59601,7 +59626,7 @@
       <c r="G168" s="27"/>
       <c r="H168" s="27"/>
     </row>
-    <row r="169" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A169" s="13"/>
       <c r="B169" s="65" t="s">
         <v>343</v>
@@ -59619,7 +59644,7 @@
       <c r="G169" s="13"/>
       <c r="H169" s="13"/>
     </row>
-    <row r="170" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A170" s="25"/>
       <c r="B170" s="65" t="s">
         <v>344</v>
@@ -59637,7 +59662,7 @@
       <c r="G170" s="27"/>
       <c r="H170" s="27"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A171" s="25"/>
       <c r="B171" s="65" t="s">
         <v>345</v>
@@ -59655,7 +59680,7 @@
       <c r="G171" s="26"/>
       <c r="H171" s="25"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A172" s="25"/>
       <c r="B172" s="65" t="s">
         <v>346</v>
@@ -59673,7 +59698,7 @@
       <c r="G172" s="26"/>
       <c r="H172" s="25"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A173" s="25"/>
       <c r="B173" s="65" t="s">
         <v>347</v>
@@ -59691,7 +59716,7 @@
       <c r="G173" s="26"/>
       <c r="H173" s="25"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A174" s="25"/>
       <c r="B174" s="66" t="s">
         <v>348</v>
@@ -59709,7 +59734,7 @@
       <c r="G174" s="26"/>
       <c r="H174" s="25"/>
     </row>
-    <row r="175" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A175" s="38" t="s">
         <v>349</v>
       </c>
@@ -59722,7 +59747,7 @@
       <c r="I175" s="41"/>
       <c r="J175" s="41"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A176" s="25"/>
       <c r="B176" s="67" t="s">
         <v>354</v>
@@ -59740,7 +59765,7 @@
       <c r="G176" s="26"/>
       <c r="H176" s="25"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177" s="25"/>
       <c r="B177" s="67" t="s">
         <v>350</v>
@@ -59758,7 +59783,7 @@
       <c r="G177" s="26"/>
       <c r="H177" s="25"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178" s="25"/>
       <c r="B178" s="67" t="s">
         <v>351</v>
@@ -59776,7 +59801,7 @@
       <c r="G178" s="26"/>
       <c r="H178" s="25"/>
     </row>
-    <row r="179" spans="1:10" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" s="71" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A179" s="69"/>
       <c r="B179" s="70" t="s">
         <v>352</v>
@@ -59794,7 +59819,7 @@
       <c r="I179" s="69"/>
       <c r="J179" s="69"/>
     </row>
-    <row r="180" spans="1:10" s="71" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" s="71" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A180" s="69"/>
       <c r="B180" s="68" t="s">
         <v>353</v>
@@ -59812,7 +59837,7 @@
       <c r="I180" s="69"/>
       <c r="J180" s="69"/>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181" s="25"/>
       <c r="B181" s="67" t="s">
         <v>356</v>
@@ -59830,7 +59855,7 @@
       <c r="G181" s="26"/>
       <c r="H181" s="25"/>
     </row>
-    <row r="182" spans="1:10" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" s="76" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A182" s="74"/>
       <c r="B182" s="75" t="s">
         <v>355</v>
@@ -59848,7 +59873,7 @@
       <c r="I182" s="74"/>
       <c r="J182" s="74"/>
     </row>
-    <row r="183" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A183" s="25"/>
       <c r="B183" s="67" t="s">
         <v>359</v>
@@ -59866,7 +59891,7 @@
       <c r="G183" s="26"/>
       <c r="H183" s="25"/>
     </row>
-    <row r="184" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A184" s="38" t="s">
         <v>362</v>
       </c>
@@ -59879,7 +59904,7 @@
       <c r="I184" s="41"/>
       <c r="J184" s="41"/>
     </row>
-    <row r="185" spans="1:10" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" s="76" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A185" s="74"/>
       <c r="B185" s="79" t="s">
         <v>377</v>
@@ -59897,7 +59922,7 @@
       <c r="I185" s="74"/>
       <c r="J185" s="74"/>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B186" s="80" t="s">
         <v>363</v>
       </c>
@@ -59911,7 +59936,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B187" s="8" t="s">
         <v>364</v>
       </c>
@@ -59925,7 +59950,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B188" s="1" t="s">
         <v>365</v>
       </c>
@@ -59939,7 +59964,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B189" s="1" t="s">
         <v>366</v>
       </c>
@@ -59953,7 +59978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B190" s="1" t="s">
         <v>367</v>
       </c>
@@ -59967,7 +59992,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="191" spans="1:10" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" s="76" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A191" s="74"/>
       <c r="B191" s="76" t="s">
         <v>368</v>
@@ -59985,7 +60010,7 @@
       <c r="I191" s="74"/>
       <c r="J191" s="74"/>
     </row>
-    <row r="192" spans="1:10" s="76" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" s="76" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A192" s="74"/>
       <c r="B192" s="76" t="s">
         <v>369</v>
@@ -60003,7 +60028,7 @@
       <c r="I192" s="74"/>
       <c r="J192" s="74"/>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B193" s="1" t="s">
         <v>370</v>
       </c>
@@ -60017,7 +60042,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B194" s="1" t="s">
         <v>371</v>
       </c>
@@ -60031,7 +60056,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B195" s="1" t="s">
         <v>372</v>
       </c>
@@ -60045,7 +60070,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B196" s="1" t="s">
         <v>373</v>
       </c>
@@ -60059,7 +60084,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B197" s="1" t="s">
         <v>374</v>
       </c>
@@ -60073,7 +60098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="198" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A198" s="69"/>
       <c r="B198" s="81" t="s">
         <v>375</v>
@@ -60091,7 +60116,7 @@
       <c r="I198" s="69"/>
       <c r="J198" s="69"/>
     </row>
-    <row r="199" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A199" s="69"/>
       <c r="B199" s="81" t="s">
         <v>376</v>
@@ -60109,7 +60134,7 @@
       <c r="I199" s="69"/>
       <c r="J199" s="69"/>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B200" s="8" t="s">
         <v>380</v>
       </c>
@@ -60123,7 +60148,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="201" spans="1:10" s="39" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" s="39" customFormat="1" ht="14.35" x14ac:dyDescent="0.5">
       <c r="A201" s="38" t="s">
         <v>383</v>
       </c>
@@ -60136,7 +60161,7 @@
       <c r="I201" s="41"/>
       <c r="J201" s="41"/>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B202" s="82" t="s">
         <v>384</v>
       </c>
@@ -60150,7 +60175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B203" s="82" t="s">
         <v>385</v>
       </c>
@@ -60164,7 +60189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B204" s="82" t="s">
         <v>386</v>
       </c>
@@ -60178,7 +60203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B205" s="82" t="s">
         <v>387</v>
       </c>
@@ -60192,7 +60217,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B206" s="82" t="s">
         <v>388</v>
       </c>
@@ -60206,7 +60231,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B207" s="82" t="s">
         <v>389</v>
       </c>
@@ -60220,7 +60245,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="208" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:10" s="76" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A208" s="74"/>
       <c r="B208" s="79" t="s">
         <v>451</v>
@@ -60238,7 +60263,7 @@
       <c r="I208" s="74"/>
       <c r="J208" s="74"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B209" s="83" t="s">
         <v>390</v>
       </c>
@@ -60252,7 +60277,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B210" s="83" t="s">
         <v>391</v>
       </c>
@@ -60266,7 +60291,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B211" s="83" t="s">
         <v>392</v>
       </c>
@@ -60280,7 +60305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B212" s="83" t="s">
         <v>393</v>
       </c>
@@ -60294,7 +60319,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B213" s="83" t="s">
         <v>394</v>
       </c>
@@ -60308,7 +60333,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B214" s="83" t="s">
         <v>395</v>
       </c>
@@ -60322,7 +60347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B215" s="83" t="s">
         <v>396</v>
       </c>
@@ -60336,7 +60361,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B216" s="83" t="s">
         <v>397</v>
       </c>
@@ -60350,7 +60375,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B217" s="83" t="s">
         <v>398</v>
       </c>
@@ -60364,7 +60389,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B218" s="83" t="s">
         <v>399</v>
       </c>
@@ -60378,7 +60403,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B219" s="83" t="s">
         <v>400</v>
       </c>
@@ -60392,7 +60417,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B220" s="84" t="s">
         <v>401</v>
       </c>
@@ -60406,7 +60431,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B221" s="84" t="s">
         <v>402</v>
       </c>
@@ -60420,7 +60445,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B222" s="84" t="s">
         <v>403</v>
       </c>
@@ -60434,7 +60459,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B223" s="84" t="s">
         <v>404</v>
       </c>
@@ -60448,7 +60473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B224" s="86" t="s">
         <v>405</v>
       </c>
@@ -60462,7 +60487,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B225" s="86" t="s">
         <v>406</v>
       </c>
@@ -60476,7 +60501,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B226" s="86" t="s">
         <v>407</v>
       </c>
@@ -60490,7 +60515,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B227" s="86" t="s">
         <v>408</v>
       </c>
@@ -60504,7 +60529,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B228" s="86" t="s">
         <v>409</v>
       </c>
@@ -60518,7 +60543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B229" s="86" t="s">
         <v>410</v>
       </c>
@@ -60532,7 +60557,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B230" s="86" t="s">
         <v>411</v>
       </c>
@@ -60546,7 +60571,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B231" s="86" t="s">
         <v>412</v>
       </c>
@@ -60560,7 +60585,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B232" s="86" t="s">
         <v>413</v>
       </c>
@@ -60574,7 +60599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B233" s="86" t="s">
         <v>414</v>
       </c>
@@ -60588,7 +60613,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B234" s="86" t="s">
         <v>415</v>
       </c>
@@ -60602,7 +60627,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B235" s="86" t="s">
         <v>416</v>
       </c>
@@ -60616,7 +60641,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B236" s="86" t="s">
         <v>417</v>
       </c>
@@ -60630,7 +60655,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B237" s="86" t="s">
         <v>418</v>
       </c>
@@ -60644,7 +60669,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B238" s="86" t="s">
         <v>419</v>
       </c>
@@ -60658,7 +60683,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B239" s="86" t="s">
         <v>420</v>
       </c>
@@ -60672,7 +60697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B240" s="86" t="s">
         <v>421</v>
       </c>
@@ -60686,7 +60711,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B241" s="85" t="s">
         <v>422</v>
       </c>
@@ -60700,7 +60725,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B242" s="85" t="s">
         <v>423</v>
       </c>
@@ -60714,7 +60739,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B243" s="85" t="s">
         <v>424</v>
       </c>
@@ -60728,7 +60753,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B244" s="85" t="s">
         <v>425</v>
       </c>
@@ -60742,7 +60767,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B245" s="85" t="s">
         <v>426</v>
       </c>
@@ -60756,7 +60781,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B246" s="87" t="s">
         <v>427</v>
       </c>
@@ -60770,7 +60795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B247" s="88" t="s">
         <v>428</v>
       </c>
@@ -60784,7 +60809,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B248" s="88" t="s">
         <v>429</v>
       </c>
@@ -60798,7 +60823,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B249" s="88" t="s">
         <v>430</v>
       </c>
@@ -60812,7 +60837,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B250" s="88" t="s">
         <v>431</v>
       </c>
@@ -60826,7 +60851,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B251" s="88" t="s">
         <v>432</v>
       </c>
@@ -60840,7 +60865,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B252" s="88" t="s">
         <v>433</v>
       </c>
@@ -60854,7 +60879,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B253" s="88" t="s">
         <v>434</v>
       </c>
@@ -60868,7 +60893,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B254" s="88" t="s">
         <v>435</v>
       </c>
@@ -60882,7 +60907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B255" s="88" t="s">
         <v>436</v>
       </c>
@@ -60896,7 +60921,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B256" s="88" t="s">
         <v>437</v>
       </c>
@@ -60910,7 +60935,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B257" s="88" t="s">
         <v>438</v>
       </c>
@@ -60924,7 +60949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B258" s="88" t="s">
         <v>439</v>
       </c>
@@ -60938,7 +60963,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B259" s="88" t="s">
         <v>440</v>
       </c>
@@ -60952,7 +60977,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B260" s="88" t="s">
         <v>441</v>
       </c>
@@ -60966,7 +60991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B261" s="88" t="s">
         <v>442</v>
       </c>
@@ -60980,7 +61005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B262" s="88" t="s">
         <v>443</v>
       </c>
@@ -60994,7 +61019,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B263" s="88" t="s">
         <v>444</v>
       </c>
@@ -61008,7 +61033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B264" s="88" t="s">
         <v>445</v>
       </c>
@@ -61022,7 +61047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B265" s="88" t="s">
         <v>446</v>
       </c>
@@ -61036,7 +61061,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B266" s="88" t="s">
         <v>447</v>
       </c>
@@ -61050,7 +61075,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B267" s="88" t="s">
         <v>448</v>
       </c>
@@ -61064,7 +61089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B268" s="89" t="s">
         <v>449</v>
       </c>
@@ -61078,7 +61103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B269" s="90" t="s">
         <v>450</v>
       </c>
@@ -61095,7 +61120,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B270" s="92" t="s">
         <v>452</v>
       </c>
@@ -61109,7 +61134,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B271" s="92" t="s">
         <v>453</v>
       </c>
@@ -61123,7 +61148,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B272" s="92" t="s">
         <v>454</v>
       </c>
@@ -61137,7 +61162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B273" s="92" t="s">
         <v>455</v>
       </c>
@@ -61162,119 +61187,119 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="13" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="16384" width="9.1171875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
     </row>
-    <row r="3" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" s="8" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" s="8" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" s="8" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" s="8" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="8" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="91" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" s="8" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" s="8" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" s="8" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="12.95" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="91" t="s">
         <v>473</v>
       </c>
